--- a/data/HorarioReuniones.xlsx
+++ b/data/HorarioReuniones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8A68D-1EBB-4771-A472-4A2784413B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A98C7-CE9A-4A7C-9108-5732DAF99619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{638A5138-5A06-42F1-B30B-EC31968607A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -77,22 +77,58 @@
     <t>Ubicación</t>
   </si>
   <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Miercoles</t>
   </si>
   <si>
     <t>Jueves</t>
   </si>
   <si>
-    <t>Sabado</t>
-  </si>
-  <si>
-    <t>Domingo</t>
+    <t>CALI</t>
+  </si>
+  <si>
+    <t>Bellaterra AREIA</t>
+  </si>
+  <si>
+    <t>Bellaterra AQUARIS</t>
+  </si>
+  <si>
+    <t>Bellaterra Praia</t>
+  </si>
+  <si>
+    <t>Viverdi</t>
+  </si>
+  <si>
+    <t>Saona</t>
+  </si>
+  <si>
+    <t>Fiorino</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Tempus</t>
+  </si>
+  <si>
+    <t>Baikal</t>
+  </si>
+  <si>
+    <t>Jairo Vargas</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueves </t>
   </si>
 </sst>
 </file>
@@ -133,8 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,21 +511,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7C9E73-D03C-41D0-83E3-26AEC2925915}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -510,13 +555,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -533,76 +578,229 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+        <v>0.625</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J2" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45741</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45741</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
+        <v>0.375</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H4" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H9" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K3" s="3">
-        <v>45744</v>
-      </c>
-      <c r="L3" s="3">
-        <v>45744</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/data/HorarioReuniones.xlsx
+++ b/data/HorarioReuniones.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/05. Seguimiento proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="586" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B605F35D-E404-4CE7-BF34-763533045EFD}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7CC3CE-5C48-44E3-9BF8-D17A4F0B2A5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HORARIOS (2)" sheetId="10" state="hidden" r:id="rId1"/>
-    <sheet name="HORARIOS" sheetId="8" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="12" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
-    <sheet name="HorariosNacional" sheetId="11" r:id="rId5"/>
+    <sheet name="HorarioReuniones" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HORARIOS!$B$2:$I$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'HORARIOS (2)'!$B$2:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -76,44 +72,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={37756F5A-D792-4DB1-BCB1-C6F2E9189424}</author>
-    <author>tc={CAD112DD-E785-446D-9BA1-1A762219E6BD}</author>
-    <author>tc={029BFA01-DA74-43F6-994E-E1389D83443F}</author>
-  </authors>
-  <commentList>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{37756F5A-D792-4DB1-BCB1-C6F2E9189424}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Intermedia virtual</t>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="1" shapeId="0" xr:uid="{CAD112DD-E785-446D-9BA1-1A762219E6BD}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Las dos torres se encuentran en entregas</t>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="2" shapeId="0" xr:uid="{029BFA01-DA74-43F6-994E-E1389D83443F}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Intermedia virtual</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="102">
   <si>
     <t>REUNIÓN INTERMEDIA</t>
   </si>
@@ -419,93 +379,6 @@
   </si>
   <si>
     <t>Sábado</t>
-  </si>
-  <si>
-    <t>AMARETTO</t>
-  </si>
-  <si>
-    <t>JUEVES</t>
-  </si>
-  <si>
-    <t>VIERNES</t>
-  </si>
-  <si>
-    <t>AQUANOVA</t>
-  </si>
-  <si>
-    <t>CP FLAMENCOS</t>
-  </si>
-  <si>
-    <t>MIERCOLES</t>
-  </si>
-  <si>
-    <t>2:00PM</t>
-  </si>
-  <si>
-    <t>CP TAYRONA APTOS</t>
-  </si>
-  <si>
-    <t>9:00PM</t>
-  </si>
-  <si>
-    <t>9:00OM</t>
-  </si>
-  <si>
-    <t>CP ACANDÍ</t>
-  </si>
-  <si>
-    <t>CP COCUY</t>
-  </si>
-  <si>
-    <t>MARTES</t>
-  </si>
-  <si>
-    <t>DIMARO</t>
-  </si>
-  <si>
-    <t>FLORENCIA</t>
-  </si>
-  <si>
-    <t>PD ARRECIFE</t>
-  </si>
-  <si>
-    <t>9:00AM</t>
-  </si>
-  <si>
-    <t>PD CRISTALINA</t>
-  </si>
-  <si>
-    <t>8:00AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:00AM </t>
-  </si>
-  <si>
-    <t>PD MARISMA</t>
-  </si>
-  <si>
-    <t>SABADOS</t>
-  </si>
-  <si>
-    <t>7:30AM</t>
-  </si>
-  <si>
-    <t>PD NATURA</t>
-  </si>
-  <si>
-    <t>9:30AM</t>
-  </si>
-  <si>
-    <t>RIVERBAY</t>
-  </si>
-  <si>
-    <t>RIVERBLUE</t>
-  </si>
-  <si>
-    <t>SOLARIO</t>
-  </si>
-  <si>
-    <t>LUNES</t>
   </si>
 </sst>
 </file>
@@ -515,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,12 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,12 +452,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -950,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,8 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,10 +966,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1119,9 +978,12 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,9 +992,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,12 +1130,6 @@
 </file>
 
 <file path=xl/namedSheetViews/namedSheetView2.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <namedSheetView name="View1" id="{F49D376D-82B7-478E-928F-D12ED9292A36}"/>
-</namedSheetViews>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView3.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
@@ -1602,20 +1455,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F19" dT="2025-09-02T19:20:57.19" personId="{AF1D05DE-1710-411A-99E9-8F5AE36DFE73}" id="{37756F5A-D792-4DB1-BCB1-C6F2E9189424}">
-    <text>Intermedia virtual</text>
-  </threadedComment>
-  <threadedComment ref="E22" dT="2025-09-02T19:20:35.71" personId="{AF1D05DE-1710-411A-99E9-8F5AE36DFE73}" id="{CAD112DD-E785-446D-9BA1-1A762219E6BD}">
-    <text>Las dos torres se encuentran en entregas</text>
-  </threadedComment>
-  <threadedComment ref="F24" dT="2025-09-02T19:21:09.19" personId="{AF1D05DE-1710-411A-99E9-8F5AE36DFE73}" id="{029BFA01-DA74-43F6-994E-E1389D83443F}">
-    <text>Intermedia virtual</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18408C9E-503D-44A4-B01F-56906B6F02B7}">
   <dimension ref="B1:I27"/>
@@ -1643,16 +1482,16 @@
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="40"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
@@ -1687,22 +1526,22 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1713,7 +1552,7 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="28" t="s">
@@ -1722,13 +1561,13 @@
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="46">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1739,7 +1578,7 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -1748,13 +1587,13 @@
       <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1765,7 +1604,7 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -1774,13 +1613,13 @@
       <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1791,7 +1630,7 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -1800,13 +1639,13 @@
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1817,7 +1656,7 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -1826,13 +1665,13 @@
       <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1843,7 +1682,7 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="29" t="s">
@@ -1852,13 +1691,13 @@
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="46" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1869,7 +1708,7 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="29" t="s">
@@ -1878,13 +1717,13 @@
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="46" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1895,22 +1734,22 @@
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="42" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2006,7 +1845,7 @@
       <c r="F15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -2032,7 +1871,7 @@
       <c r="F16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="37" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="18" t="s">
@@ -2058,7 +1897,7 @@
       <c r="F17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="37" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="18" t="s">
@@ -2084,7 +1923,7 @@
       <c r="F18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="18" t="s">
@@ -2329,2464 +2168,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9793D49C-1C90-45AF-90E0-C8673AFA8947}">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBFCD50-7C2D-410D-9ADD-AF8E2F18DE59}">
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="2:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="48">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="48">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="48">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="24"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:I27" xr:uid="{9793D49C-1C90-45AF-90E0-C8673AFA8947}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:I25">
-      <sortCondition ref="F2:F27"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F5A5E0-6566-45D5-8EBF-8A99E384DDCE}">
-  <dimension ref="C3:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.3">
-      <c r="F18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EBBFD3-7B10-48C9-953B-EF7C71A87529}">
-  <dimension ref="A2:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" style="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="38">
-        <v>45757</v>
-      </c>
-      <c r="C4">
-        <f>152*A2</f>
-        <v>212.79999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="37">
-        <f>B4+C4</f>
-        <v>45969.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
-        <v>45751</v>
-      </c>
-      <c r="C13">
-        <f>182*A2</f>
-        <v>254.79999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="37">
-        <f>B13+C13</f>
-        <v>46005.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBFCD50-7C2D-410D-9ADD-AF8E2F18DE59}">
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="53" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="53" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="53" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" style="53"/>
-    <col min="14" max="14" width="29" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="53"/>
+    <col min="1" max="1" width="14.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="51" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="51" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="51" customWidth="1"/>
+    <col min="9" max="13" width="11.5546875" style="51"/>
+    <col min="14" max="14" width="29" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="55">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="55">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="55">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="55" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="56" t="s">
+      <c r="B18" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="56" t="s">
+      <c r="B22" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="56" t="s">
+      <c r="B23" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="56" t="s">
+      <c r="B24" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="56"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="57">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="56"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56" t="s">
+      <c r="F30" s="54"/>
+      <c r="G30" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="56" t="s">
+      <c r="B32" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="56"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="56" t="s">
+      <c r="B33" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="57">
         <v>0.3125</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="56"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="56" t="s">
+      <c r="B34" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="57">
         <v>0.625</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="56"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="57">
         <v>0.3125</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="56"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="56" t="s">
+      <c r="B36" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="57">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="56"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="56" t="s">
+      <c r="B38" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="57">
         <v>0.35416666666666669</v>
       </c>
-      <c r="G38" s="56" t="s">
+      <c r="G38" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="56"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="56" t="s">
+      <c r="B39" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56" t="s">
+      <c r="F39" s="54"/>
+      <c r="G39" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="56"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="56" t="s">
+      <c r="B40" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56" t="s">
+      <c r="F40" s="54"/>
+      <c r="G40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="56"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="56" t="s">
+      <c r="B41" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="57">
         <v>0.375</v>
       </c>
-      <c r="G41" s="56" t="s">
+      <c r="G41" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="56"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="56" t="s">
+      <c r="B42" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56" t="s">
+      <c r="F42" s="54"/>
+      <c r="G42" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H42" s="56"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56" t="s">
+      <c r="F43" s="54"/>
+      <c r="G43" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="56"/>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="56" t="s">
+      <c r="B44" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="56"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="56" t="s">
+      <c r="B45" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="56"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="56" t="s">
+      <c r="B46" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56" t="s">
+      <c r="F46" s="54"/>
+      <c r="G46" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="56"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="56" t="s">
+      <c r="B47" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="56" t="s">
+      <c r="D47" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="56"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="56" t="s">
+      <c r="B48" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D48" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56" t="s">
+      <c r="F48" s="54"/>
+      <c r="G48" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="56"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="56" t="s">
+      <c r="B49" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="56" t="s">
+      <c r="D49" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56" t="s">
+      <c r="F49" s="54"/>
+      <c r="G49" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="56"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="56" t="s">
+      <c r="B50" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56" t="s">
+      <c r="F50" s="54"/>
+      <c r="G50" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="56"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="56" t="s">
+      <c r="B51" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D51" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="57">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G51" s="56" t="s">
+      <c r="G51" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="56"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="56" t="s">
+      <c r="B52" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="56" t="s">
+      <c r="D52" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H52" s="56"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="56" t="s">
+      <c r="B53" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="56" t="s">
+      <c r="D53" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="57">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G53" s="56" t="s">
+      <c r="G53" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="56"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="56" t="s">
+      <c r="B54" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D54" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G54" s="56" t="s">
+      <c r="G54" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="56"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="56" t="s">
+      <c r="B55" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="57">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="56"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="56" t="s">
+      <c r="B56" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="57">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G56" s="56" t="s">
+      <c r="G56" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="56"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="56" t="s">
+      <c r="B57" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="57">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="56"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="56" t="s">
+      <c r="B58" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G58" s="56" t="s">
+      <c r="G58" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="56"/>
+      <c r="H58" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,17 +3620,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="44e272165eea02e2884bff394ffafbde">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ba6779459cab2ce3e1e052acb8c1196" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -5068,6 +3880,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5078,6 +3901,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFA9CFD-6030-4BE1-85A2-8AD8D310711C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
+    <ds:schemaRef ds:uri="98ef58cf-375e-4e6b-8b8c-d3296d60f80a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C3F473-B69F-4A0F-9366-A001F109928E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5096,10 +3938,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFA9CFD-6030-4BE1-85A2-8AD8D310711C}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E023C4BA-0252-41E3-A61A-119C417F953E}">
   <ds:schemaRefs>

--- a/data/HorarioReuniones.xlsx
+++ b/data/HorarioReuniones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/05. Seguimiento proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE00B389-9A7C-4E8C-8797-C23BD4A13AB1}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367243F0-694F-42F5-9483-93DD896A2809}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="86">
   <si>
     <t>SUCURSAL</t>
   </si>
@@ -104,15 +104,6 @@
     <t>Baikal</t>
   </si>
   <si>
-    <t>2:00pm</t>
-  </si>
-  <si>
-    <t>10:00am</t>
-  </si>
-  <si>
-    <t>10:30am</t>
-  </si>
-  <si>
     <t>Parque Oriente Aurora</t>
   </si>
   <si>
@@ -128,24 +119,12 @@
     <t>En la mañana, es el mismo clúster varia</t>
   </si>
   <si>
-    <t>4:00pm</t>
-  </si>
-  <si>
-    <t>8:00am</t>
-  </si>
-  <si>
-    <t>11:00am</t>
-  </si>
-  <si>
     <t>Meridiano</t>
   </si>
   <si>
     <t>Country Park</t>
   </si>
   <si>
-    <t>3:00pm</t>
-  </si>
-  <si>
     <t>Terraza de Miraflores</t>
   </si>
   <si>
@@ -155,12 +134,6 @@
     <t>Tempus</t>
   </si>
   <si>
-    <t>9:00am</t>
-  </si>
-  <si>
-    <t>01:30pm</t>
-  </si>
-  <si>
     <t>Parque Oriente Montevista</t>
   </si>
   <si>
@@ -168,15 +141,6 @@
   </si>
   <si>
     <t>Panoramik</t>
-  </si>
-  <si>
-    <t>03:00pm</t>
-  </si>
-  <si>
-    <t>04:30pm</t>
-  </si>
-  <si>
-    <t>1:00pm</t>
   </si>
   <si>
     <t>-</t>
@@ -536,10 +500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBFCD50-7C2D-410D-9ADD-AF8E2F18DE59}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,22 +836,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -902,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -910,14 +870,14 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
+      <c r="F2" s="5">
+        <v>0.625</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>40</v>
+      <c r="H2" s="5">
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -928,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
@@ -954,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -962,14 +922,14 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
+      <c r="F4" s="5">
+        <v>0.4375</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
+      <c r="H4" s="5">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -980,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>21</v>
@@ -988,14 +948,14 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
+      <c r="F5" s="5">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
+      <c r="H5" s="5">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1006,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -1014,8 +974,8 @@
       <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
+      <c r="F6" s="5">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -1032,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
@@ -1040,14 +1000,14 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
+      <c r="F7" s="5">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
+      <c r="H7" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,22 +1018,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
+      <c r="F8" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>32</v>
+      <c r="H8" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1084,22 +1044,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
+      <c r="F9" s="5">
+        <v>0.58333333333333337</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
+      <c r="H9" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>22</v>
@@ -1118,14 +1078,14 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
+      <c r="F10" s="5">
+        <v>0.58333333333333337</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>32</v>
+      <c r="H10" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1136,22 +1096,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
+      <c r="F11" s="5">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>36</v>
+      <c r="H11" s="5">
+        <v>0.625</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1162,22 +1122,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
+      <c r="F12" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>45</v>
+      <c r="H12" s="5">
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1192,16 +1152,16 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1212,22 +1172,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
+      <c r="H14" s="5">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1238,22 +1198,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>45</v>
+      <c r="H15" s="5">
+        <v>0.625</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1264,22 +1224,22 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1290,22 +1250,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>46</v>
+      <c r="H17" s="5">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1316,22 +1276,22 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
+      <c r="F18" s="5">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1342,22 +1302,22 @@
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>32</v>
+      <c r="F19" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>36</v>
+      <c r="H19" s="5">
+        <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1368,22 +1328,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>32</v>
+      <c r="F20" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>23</v>
+      <c r="H20" s="5">
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1394,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -1402,14 +1362,14 @@
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>32</v>
+      <c r="F21" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>32</v>
+      <c r="H21" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -1428,14 +1388,14 @@
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>33</v>
+      <c r="F22" s="5">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>36</v>
+      <c r="H22" s="5">
+        <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1446,22 +1406,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
+      <c r="F23" s="5">
+        <v>0.4375</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,22 +1432,22 @@
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>40</v>
+      <c r="F24" s="5">
+        <v>0.375</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>47</v>
+      <c r="H24" s="5">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1498,36 +1458,36 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>32</v>
+      <c r="F25" s="5">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>32</v>
+      <c r="H25" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>4</v>
@@ -1542,16 +1502,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>3</v>
@@ -1564,16 +1524,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>3</v>
@@ -1588,16 +1548,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>8</v>
@@ -1612,16 +1572,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>8</v>
@@ -1634,16 +1594,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>4</v>
@@ -1658,16 +1618,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>6</v>
@@ -1682,16 +1642,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
@@ -1700,22 +1660,22 @@
         <v>0.3125</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>6</v>
@@ -1724,22 +1684,22 @@
         <v>0.625</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>6</v>
@@ -1754,16 +1714,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
@@ -1778,16 +1738,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -1802,16 +1762,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>6</v>
@@ -1826,16 +1786,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>6</v>
@@ -1848,16 +1808,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>6</v>
@@ -1870,16 +1830,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -1894,16 +1854,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>3</v>
@@ -1916,16 +1876,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>3</v>
@@ -1938,16 +1898,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>4</v>
@@ -1962,16 +1922,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>4</v>
@@ -1986,16 +1946,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>4</v>
@@ -2008,16 +1968,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>4</v>
@@ -2032,16 +1992,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>9</v>
@@ -2054,16 +2014,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>9</v>
@@ -2076,38 +2036,38 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
@@ -2122,16 +2082,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>4</v>
@@ -2140,22 +2100,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>4</v>
@@ -2170,16 +2130,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>9</v>
@@ -2194,16 +2154,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>8</v>
@@ -2212,22 +2172,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>9</v>
@@ -2242,16 +2202,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>6</v>
@@ -2266,16 +2226,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>4</v>
@@ -2308,6 +2268,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000FF95551CE081140AE9F3A39C79FCCBD" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="44e272165eea02e2884bff394ffafbde">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c" xmlns:ns3="98ef58cf-375e-4e6b-8b8c-d3296d60f80a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ba6779459cab2ce3e1e052acb8c1196" ns2:_="" ns3:_="">
     <xsd:import namespace="2e1d9d2d-8e8e-4bf8-9aea-2533573f0f7c"/>
@@ -2568,15 +2537,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C3F473-B69F-4A0F-9366-A001F109928E}">
   <ds:schemaRefs>
@@ -2597,6 +2557,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E023C4BA-0252-41E3-A61A-119C417F953E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFA9CFD-6030-4BE1-85A2-8AD8D310711C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2613,12 +2581,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E023C4BA-0252-41E3-A61A-119C417F953E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/HorarioReuniones.xlsx
+++ b/data/HorarioReuniones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupomarval.sharepoint.com/sites/Lean-BIM/Documentos compartidos/LEAN/05. Seguimiento proyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{367243F0-694F-42F5-9483-93DD896A2809}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="8_{F8517AB9-D2C3-4B8A-A2D7-39F21A6E6CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D30627-A60E-48A1-BBAD-7DEFC77CE9AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HorarioReuniones" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="104">
   <si>
     <t>SUCURSAL</t>
   </si>
@@ -291,6 +291,60 @@
   </si>
   <si>
     <t>Sábado</t>
+  </si>
+  <si>
+    <t>BARRANQUILLA</t>
+  </si>
+  <si>
+    <t>José Luis Suarez</t>
+  </si>
+  <si>
+    <t>Amaretto</t>
+  </si>
+  <si>
+    <t>Aquanova</t>
+  </si>
+  <si>
+    <t>CP Los Flamencos</t>
+  </si>
+  <si>
+    <t>CP Tayrona Aptos</t>
+  </si>
+  <si>
+    <t>CP Cocuy</t>
+  </si>
+  <si>
+    <t>Dimaro</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>PD Arrecife</t>
+  </si>
+  <si>
+    <t>PD Cristalina</t>
+  </si>
+  <si>
+    <t>PD Marisma</t>
+  </si>
+  <si>
+    <t>Sabado</t>
+  </si>
+  <si>
+    <t>PD Natura</t>
+  </si>
+  <si>
+    <t>Riverbay</t>
+  </si>
+  <si>
+    <t>Riverblue</t>
+  </si>
+  <si>
+    <t>Solario</t>
+  </si>
+  <si>
+    <t>Germán Vaquero</t>
   </si>
 </sst>
 </file>
@@ -349,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +421,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -502,9 +559,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}" name="Tabla1" displayName="Tabla1" ref="A1:H58" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H58" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}" name="Tabla1" displayName="Tabla1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H72" xr:uid="{92E18A01-9559-420E-BDD9-32D99F48FA13}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{FE429965-B714-4095-9C01-37342F915E3C}" name="SUCURSAL" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D2082CF3-B8CA-4A22-8130-7D597A7B2A18}" name="PRACTICANTE" dataDxfId="6"/>
@@ -806,29 +867,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBFCD50-7C2D-410D-9ADD-AF8E2F18DE59}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" style="1"/>
     <col min="14" max="14" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="1"/>
+    <col min="15" max="15" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -880,7 +941,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -906,7 +967,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -932,7 +993,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -958,7 +1019,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -984,7 +1045,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1071,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1123,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1149,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1175,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1201,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1190,7 +1251,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1277,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1329,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1320,7 +1381,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1407,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1433,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1459,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1511,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1537,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1553,7 @@
       <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1500,7 +1561,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>49</v>
       </c>
@@ -1516,13 +1577,13 @@
       <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -1538,7 +1599,7 @@
       <c r="E28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1546,7 +1607,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
@@ -1562,7 +1623,7 @@
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G29" s="4" t="s">
@@ -1570,7 +1631,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -1592,7 +1653,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>49</v>
       </c>
@@ -1608,7 +1669,7 @@
       <c r="E31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1616,7 +1677,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
@@ -1632,7 +1693,7 @@
       <c r="E32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1640,7 +1701,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>49</v>
       </c>
@@ -1656,7 +1717,7 @@
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>0.3125</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1664,7 +1725,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1741,7 @@
       <c r="E34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>0.625</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -1688,7 +1749,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>49</v>
       </c>
@@ -1704,7 +1765,7 @@
       <c r="E35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>0.3125</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -1712,7 +1773,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1789,7 @@
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1736,7 +1797,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -1752,7 +1813,7 @@
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -1760,7 +1821,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -1776,7 +1837,7 @@
       <c r="E38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>0.35416666666666669</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -1784,7 +1845,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -1806,7 +1867,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1889,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -1844,7 +1905,7 @@
       <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>0.375</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -1852,7 +1913,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1935,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1896,7 +1957,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>49</v>
       </c>
@@ -1912,7 +1973,7 @@
       <c r="E44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -1920,7 +1981,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1936,7 +1997,7 @@
       <c r="E45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -1944,7 +2005,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
@@ -1966,7 +2027,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1982,7 +2043,7 @@
       <c r="E47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -1990,7 +2051,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -2012,7 +2073,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -2034,7 +2095,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2056,7 +2117,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2133,7 @@
       <c r="E51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -2080,7 +2141,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
@@ -2096,7 +2157,7 @@
       <c r="E52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -2104,7 +2165,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>49</v>
       </c>
@@ -2120,7 +2181,7 @@
       <c r="E53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>0.39583333333333331</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -2128,7 +2189,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2205,7 @@
       <c r="E54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -2152,7 +2213,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -2168,7 +2229,7 @@
       <c r="E55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>0.66666666666666663</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -2176,7 +2237,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -2192,7 +2253,7 @@
       <c r="E56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -2200,7 +2261,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>49</v>
       </c>
@@ -2216,7 +2277,7 @@
       <c r="E57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2224,7 +2285,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>49</v>
       </c>
@@ -2240,13 +2301,375 @@
       <c r="E58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2565,7 +2988,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDFA9CFD-6030-4BE1-85A2-8AD8D310711C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE72338-4D4F-4579-A56E-3063FBC32C3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
